--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3678.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3678.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.047897624724742</v>
+        <v>4.89063024520874</v>
       </c>
       <c r="B1">
-        <v>1.481405329132074</v>
+        <v>3.811607122421265</v>
       </c>
       <c r="C1">
-        <v>2.720034933266904</v>
+        <v>2.258739709854126</v>
       </c>
       <c r="D1">
-        <v>7.527353985719976</v>
+        <v>1.781139254570007</v>
       </c>
       <c r="E1">
-        <v>1.793887617420539</v>
+        <v>1.176329851150513</v>
       </c>
     </row>
   </sheetData>
